--- a/src/main/resources/sample_files/patient.xlsx
+++ b/src/main/resources/sample_files/patient.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\HIS-BE\src\main\resources\sample_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3265310-B5EA-47BE-96EB-3FD4747A5E10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D675233-645D-4B31-92A5-01397848EF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Countries Code" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Countries Code" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
     <author>Zain Imtiaz</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7A86810D-091B-4ACB-A450-A5A0178D5FB2}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{2D359FDF-E7C0-4E7F-8537-AE3B183C1E1C}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="266">
   <si>
     <t>Primary Doctor</t>
   </si>
@@ -852,6 +853,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Date of Birth (yyyy-MM-dd)</t>
+  </si>
+  <si>
+    <t>Gender (Male, Female, Other)</t>
   </si>
 </sst>
 </file>
@@ -1219,20 +1226,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
@@ -1243,95 +1250,173 @@
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="str">
+      <c r="C2" t="str">
         <f>"0333123456789"</f>
         <v>0333123456789</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
         <v>34137</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>233</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FCF93-FE64-4603-964A-A2A5AA209B46}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"0333123456789"</f>
+        <v>0333123456789</v>
+      </c>
+      <c r="F2" s="2">
+        <v>34137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>233</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E634C37-FC85-4FBE-AC91-F94059FFE7C9}">
   <dimension ref="A1:B248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
